--- a/Data_preparation/datasets/final_data/EPAM_Systems_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/EPAM_Systems_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>11.40454674014372</v>
+        <v>61.22999954223633</v>
       </c>
       <c r="E2">
-        <v>11.25329399108887</v>
+        <v>64.70999908447266</v>
       </c>
       <c r="F2">
-        <v>11.646553599544</v>
+        <v>70.48999786376953</v>
       </c>
       <c r="G2">
-        <v>10.79953140113752</v>
+        <v>59.5099983215332</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>55696909</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>2994508781</v>
@@ -840,22 +777,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>19705.44771228903</v>
+        <v>72.16999816894531</v>
       </c>
       <c r="E3">
-        <v>18415.580078125</v>
+        <v>74.11000061035156</v>
       </c>
       <c r="F3">
-        <v>20373.69239022943</v>
+        <v>75.88999938964844</v>
       </c>
       <c r="G3">
-        <v>18260.1743390691</v>
+        <v>70.51000213623047</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>55696909</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>3483504788</v>
@@ -965,22 +902,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>754.2077893284245</v>
+        <v>74.23999786376953</v>
       </c>
       <c r="E4">
-        <v>754.7066040039062</v>
+        <v>77.34999847412109</v>
       </c>
       <c r="F4">
-        <v>768.1746002419138</v>
+        <v>81.94999694824219</v>
       </c>
       <c r="G4">
-        <v>727.601031587557</v>
+        <v>73.22000122070312</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>55696909</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>3707780307</v>
@@ -1093,22 +1030,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>27.125</v>
+        <v>77.97000122070312</v>
       </c>
       <c r="E5">
-        <v>25.34499931335449</v>
+        <v>74.90000152587891</v>
       </c>
       <c r="F5">
-        <v>27.125</v>
+        <v>78.04000091552734</v>
       </c>
       <c r="G5">
-        <v>22.22999954223633</v>
+        <v>64.81999969482422</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>55696909</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>3928754770</v>
@@ -1221,22 +1158,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>11.19978539931328</v>
+        <v>74.19000244140625</v>
       </c>
       <c r="E6">
-        <v>11.3136043548584</v>
+        <v>72.93000030517578</v>
       </c>
       <c r="F6">
-        <v>11.83261851426581</v>
+        <v>78.40000152587891</v>
       </c>
       <c r="G6">
-        <v>10.98580520713185</v>
+        <v>72.11000061035156</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>55696909</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>3761163891</v>
@@ -1349,22 +1286,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>17.48999977111816</v>
+        <v>64.38999938964844</v>
       </c>
       <c r="E7">
-        <v>18.72999954223633</v>
+        <v>70.23999786376953</v>
       </c>
       <c r="F7">
-        <v>18.8700008392334</v>
+        <v>71.08999633789062</v>
       </c>
       <c r="G7">
-        <v>16.79999923706055</v>
+        <v>61.47000122070312</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>55696909</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3258479209</v>
@@ -1477,22 +1414,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>8.69158867261447</v>
+        <v>69.19999694824219</v>
       </c>
       <c r="E8">
-        <v>9.01453971862793</v>
+        <v>64.37000274658203</v>
       </c>
       <c r="F8">
-        <v>9.435779708844802</v>
+        <v>69.19999694824219</v>
       </c>
       <c r="G8">
-        <v>8.331194091753382</v>
+        <v>62.95000076293945</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>55696909</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3527313777</v>
@@ -1605,22 +1542,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>64.68000030517578</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>64.36000061035156</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>67.56999969482422</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>63.31999969482422</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>55696909</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>3282120594</v>
@@ -1733,22 +1670,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>9.769573715804048</v>
+        <v>75.31999969482422</v>
       </c>
       <c r="E10">
-        <v>9.667807579040527</v>
+        <v>77</v>
       </c>
       <c r="F10">
-        <v>9.973106636344406</v>
+        <v>78.48999786376953</v>
       </c>
       <c r="G10">
-        <v>9.396430782995594</v>
+        <v>73.48999786376953</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>55696909</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>3865468317</v>
@@ -1861,22 +1798,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>804.4902529480636</v>
+        <v>84.69999694824219</v>
       </c>
       <c r="E11">
-        <v>793.3997192382812</v>
+        <v>85.93000030517578</v>
       </c>
       <c r="F11">
-        <v>875.2990450951361</v>
+        <v>87.93000030517578</v>
       </c>
       <c r="G11">
-        <v>749.0375843991515</v>
+        <v>81.56999969482422</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>55696909</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>4359187507</v>
@@ -1989,22 +1926,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>16.30785379979687</v>
+        <v>87.94000244140625</v>
       </c>
       <c r="E12">
-        <v>16.63021850585938</v>
+        <v>91.15000152587891</v>
       </c>
       <c r="F12">
-        <v>17.91335631168335</v>
+        <v>91.97000122070312</v>
       </c>
       <c r="G12">
-        <v>16.30785379979687</v>
+        <v>86.52999877929688</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>55696909</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>4618377022</v>
@@ -2117,22 +2054,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>107.620002746582</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>117.4800033569336</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>119.1800003051758</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>106.9000015258789</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>55696909</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>5673656114</v>
@@ -2233,22 +2170,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>15.95295863791121</v>
+        <v>114.3499984741211</v>
       </c>
       <c r="E14">
-        <v>14.81924629211426</v>
+        <v>114.3499984741211</v>
       </c>
       <c r="F14">
-        <v>16.27687689615273</v>
+        <v>119.7200012207031</v>
       </c>
       <c r="G14">
-        <v>13.44259525263616</v>
+        <v>110.1999969482422</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>55696909</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>6074121561</v>
@@ -2361,22 +2298,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>32.36709687656226</v>
+        <v>123.7099990844727</v>
       </c>
       <c r="E15">
-        <v>31.62302398681641</v>
+        <v>130.2100067138672</v>
       </c>
       <c r="F15">
-        <v>33.33438902755955</v>
+        <v>137.7299957275391</v>
       </c>
       <c r="G15">
-        <v>30.02327147189045</v>
+        <v>121.8199996948242</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>55696909</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>6639477001</v>
@@ -2489,22 +2426,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>138.3099975585938</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>119.4700012207031</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>139.3099975585938</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>110.7200012207031</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>55696909</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>7405777682</v>
@@ -2617,22 +2554,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>178.7038649689565</v>
+        <v>113.7900009155273</v>
       </c>
       <c r="E17">
-        <v>142.8035278320312</v>
+        <v>141.4799957275391</v>
       </c>
       <c r="F17">
-        <v>181.4961066283612</v>
+        <v>142.2599945068359</v>
       </c>
       <c r="G17">
-        <v>142.8035278320312</v>
+        <v>111.4400024414062</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>55696909</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>6265627246</v>
@@ -2733,22 +2670,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>170.4700012207031</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>179.3600006103516</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>179.9299926757812</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>166.5700073242188</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>55696909</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>9163031104</v>
@@ -2861,22 +2798,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>175.9100036621094</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>193.7899932861328</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>201</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>174.8800048828125</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>55696909</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>9456723902</v>
@@ -2989,22 +2926,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>60.76406463044493</v>
+        <v>183.0700073242188</v>
       </c>
       <c r="E20">
-        <v>59.60836791992188</v>
+        <v>175.9600067138672</v>
       </c>
       <c r="F20">
-        <v>61.14327406172586</v>
+        <v>191.6399993896484</v>
       </c>
       <c r="G20">
-        <v>56.1412984537168</v>
+        <v>168.2599945068359</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>55696909</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>10000304690</v>
@@ -3117,22 +3054,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>222.8461507933775</v>
+        <v>214.1199951171875</v>
       </c>
       <c r="E21">
-        <v>219.044937133789</v>
+        <v>228.1399993896484</v>
       </c>
       <c r="F21">
-        <v>252.7807083626373</v>
+        <v>236.0399932861328</v>
       </c>
       <c r="G21">
-        <v>203.3649307879864</v>
+        <v>212</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>55696909</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>11665562014</v>
@@ -3245,22 +3182,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>12.41129859768217</v>
+        <v>179.1000061035156</v>
       </c>
       <c r="E22">
-        <v>16.23237037658691</v>
+        <v>220.8899993896484</v>
       </c>
       <c r="F22">
-        <v>17.16704825563687</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="G22">
-        <v>12.05887897968325</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>55696909</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>10259420101</v>
@@ -3373,22 +3310,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>970.3393129824782</v>
+        <v>252.75</v>
       </c>
       <c r="E23">
-        <v>1088.628295898438</v>
+        <v>290.0799865722656</v>
       </c>
       <c r="F23">
-        <v>1118.200541627427</v>
+        <v>290.1199951171875</v>
       </c>
       <c r="G23">
-        <v>950.0083940437976</v>
+        <v>246.009994506836</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>55696909</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>14021694266</v>
@@ -3501,22 +3438,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>12.7733873356874</v>
+        <v>328.3200073242188</v>
       </c>
       <c r="E24">
-        <v>15.52035236358643</v>
+        <v>308.9500122070312</v>
       </c>
       <c r="F24">
-        <v>17.30587870681586</v>
+        <v>356.4800109863281</v>
       </c>
       <c r="G24">
-        <v>12.68182262753309</v>
+        <v>306.2999877929688</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>55696909</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>18056027235</v>
@@ -3629,22 +3566,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>32.50755730601569</v>
+        <v>359.010009765625</v>
       </c>
       <c r="E25">
-        <v>31.25653076171875</v>
+        <v>344.4299926757812</v>
       </c>
       <c r="F25">
-        <v>32.99459606093095</v>
+        <v>369.510009765625</v>
       </c>
       <c r="G25">
-        <v>30.77904021483708</v>
+        <v>328.8999938964844</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>55696909</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>20063632707</v>
@@ -3757,22 +3694,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2516.34996159507</v>
+        <v>401.6300048828125</v>
       </c>
       <c r="E26">
-        <v>2790.17041015625</v>
+        <v>457.75</v>
       </c>
       <c r="F26">
-        <v>2807.159270103477</v>
+        <v>461.9800109863281</v>
       </c>
       <c r="G26">
-        <v>2503.838146397838</v>
+        <v>394.0199890136719</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>55696909</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>22285830384</v>
@@ -3885,22 +3822,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>40.06459571156605</v>
+        <v>510.4299926757813</v>
       </c>
       <c r="E27">
-        <v>40.04537963867188</v>
+        <v>559.7999877929688</v>
       </c>
       <c r="F27">
-        <v>40.5353766696543</v>
+        <v>563.8900146484375</v>
       </c>
       <c r="G27">
-        <v>36.25990124070713</v>
+        <v>507.7999877929688</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>55696909</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>28820579235</v>
@@ -4013,22 +3950,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>51.72000122070312</v>
+        <v>574.0800170898438</v>
       </c>
       <c r="E28">
-        <v>45.22999954223633</v>
+        <v>673.239990234375</v>
       </c>
       <c r="F28">
-        <v>53.2400016784668</v>
+        <v>674.8099975585938</v>
       </c>
       <c r="G28">
-        <v>43.54000091552734</v>
+        <v>552.0800170898438</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>55696909</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>32306547103</v>
@@ -4141,22 +4078,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>98.06110899770088</v>
+        <v>670.3200073242188</v>
       </c>
       <c r="E29">
-        <v>84.43734741210938</v>
+        <v>476.1400146484375</v>
       </c>
       <c r="F29">
-        <v>98.06110899770088</v>
+        <v>675.3400268554688</v>
       </c>
       <c r="G29">
-        <v>80.56356001156674</v>
+        <v>423.5400085449219</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>55696909</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>37914189214</v>
@@ -4269,22 +4206,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>564.8420934999623</v>
+        <v>297.3699951171875</v>
       </c>
       <c r="E30">
-        <v>567.5840454101562</v>
+        <v>264.989990234375</v>
       </c>
       <c r="F30">
-        <v>568.4980293802209</v>
+        <v>321.2099914550781</v>
       </c>
       <c r="G30">
-        <v>487.1534560444658</v>
+        <v>260.6799926757812</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>55696909</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>16870743453</v>
@@ -4397,22 +4334,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>990.9535599144536</v>
+        <v>296.6499938964844</v>
       </c>
       <c r="E31">
-        <v>932.830322265625</v>
+        <v>349.25</v>
       </c>
       <c r="F31">
-        <v>1065.275076908038</v>
+        <v>349.6700134277344</v>
       </c>
       <c r="G31">
-        <v>932.830322265625</v>
+        <v>291.4299926757812</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>55696909</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>16847010986</v>
@@ -4525,22 +4462,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>3829.951036061672</v>
+        <v>365.8599853515625</v>
       </c>
       <c r="E32">
-        <v>3718.19677734375</v>
+        <v>350</v>
       </c>
       <c r="F32">
-        <v>4026.941593801738</v>
+        <v>389.5899963378906</v>
       </c>
       <c r="G32">
-        <v>3570.453859038701</v>
+        <v>303.5499877929688</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>55696909</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>20777910196</v>
@@ -4653,22 +4590,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>334.7799987792969</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>332.6499938964844</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>371.1000061035156</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>301.3699951171875</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>55696909</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>18849470557</v>
@@ -4781,22 +4718,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>4646.163088703966</v>
+        <v>294.9299926757812</v>
       </c>
       <c r="E34">
-        <v>4397.0390625</v>
+        <v>282.4400024414062</v>
       </c>
       <c r="F34">
-        <v>4647.12125803552</v>
+        <v>304.3299865722656</v>
       </c>
       <c r="G34">
-        <v>4224.568582820331</v>
+        <v>271.0400085449219</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>55696909</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>17245719608</v>
@@ -4909,22 +4846,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>299.8867087280755</v>
+        <v>224.979995727539</v>
       </c>
       <c r="E35">
-        <v>279.6763610839844</v>
+        <v>236.8099975585937</v>
       </c>
       <c r="F35">
-        <v>311.3327623979251</v>
+        <v>255.1900024414062</v>
       </c>
       <c r="G35">
-        <v>274.7053735580706</v>
+        <v>224.5500030517578</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>55696909</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>13014269890</v>
@@ -5037,22 +4974,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1366.269412157012</v>
+        <v>255.2200012207031</v>
       </c>
       <c r="E36">
-        <v>1400.426147460938</v>
+        <v>217.5700073242188</v>
       </c>
       <c r="F36">
-        <v>1722.475366040805</v>
+        <v>256.25</v>
       </c>
       <c r="G36">
-        <v>1356.510344927319</v>
+        <v>209.1499938964844</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>55696909</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>14819990560</v>
@@ -5165,22 +5102,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>293.489990234375</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>278.1099853515625</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>309.3800048828125</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>276.2000122070312</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>55696909</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>17156659534</v>
@@ -5293,22 +5230,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>275.5599975585937</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>235.259994506836</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>277.0400085449219</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>55696909</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>15969641848</v>
@@ -5421,22 +5358,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>186.4199981689453</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>215.1300048828125</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>223.0299987792969</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>179.5500030517578</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>55696909</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>10905558929</v>
@@ -5549,22 +5486,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>31.23959479848472</v>
+        <v>199.1900024414062</v>
       </c>
       <c r="E40">
-        <v>28.76222801208496</v>
+        <v>188.6499938964844</v>
       </c>
       <c r="F40">
-        <v>31.50219696309808</v>
+        <v>204.5500030517578</v>
       </c>
       <c r="G40">
-        <v>28.63340577082776</v>
+        <v>188.1000061035156</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>55696909</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>11331846691</v>
@@ -5677,22 +5614,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2476.994723535176</v>
+        <v>236.1399993896484</v>
       </c>
       <c r="E41">
-        <v>2384.00341796875</v>
+        <v>253.9600067138672</v>
       </c>
       <c r="F41">
-        <v>2758.415779854624</v>
+        <v>257.2300109863281</v>
       </c>
       <c r="G41">
-        <v>2325.761495008725</v>
+        <v>222.5</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>55696909</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>13262604061</v>
@@ -5805,22 +5742,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>3590.70430246099</v>
+        <v>169.1999969482422</v>
       </c>
       <c r="E42">
-        <v>3714.694091796875</v>
+        <v>156.9100036621094</v>
       </c>
       <c r="F42">
-        <v>3714.694091796875</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="G42">
-        <v>3048.748932944461</v>
+        <v>138.1499938964844</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>55696909</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>9604991532</v>
@@ -5933,22 +5870,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>2937</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="E43">
-        <v>3025</v>
+        <v>157.7100067138672</v>
       </c>
       <c r="F43">
-        <v>3125</v>
+        <v>185.8200073242188</v>
       </c>
       <c r="G43">
-        <v>2890</v>
+        <v>157.2700042724609</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>55696909</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>10017330591</v>
